--- a/data/trans_orig/IP1005-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1005-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D5322EB-0B48-4BA0-8221-E8A90CCAD6CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5DB897B-4B23-4134-9BBE-D5834A8ABB91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{BEDDCF7A-F3CB-497A-A187-AD1151B645B3}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{608C443D-0F69-4A9B-955D-E9C8CE769A73}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -106,6 +106,57 @@
     <t>0,29%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -139,57 +190,6 @@
     <t>0,58%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
     <t>99,73%</t>
   </si>
   <si>
@@ -253,6 +253,36 @@
     <t>0,15%</t>
   </si>
   <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
     <t>99,52%</t>
   </si>
   <si>
@@ -283,36 +313,6 @@
     <t>0,63%</t>
   </si>
   <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
     <t>99,82%</t>
   </si>
   <si>
@@ -370,6 +370,36 @@
     <t>1,32%</t>
   </si>
   <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
     <t>98,72%</t>
   </si>
   <si>
@@ -386,36 +416,6 @@
   </si>
   <si>
     <t>0,74%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
   </si>
   <si>
     <t>99,48%</t>
@@ -837,7 +837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F320DE72-0B22-42CF-B1FC-D279F06B6E30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{023FBCA4-4D98-4A07-B603-C19EFC6F2550}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1110,49 +1110,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>422</v>
+        <v>327</v>
       </c>
       <c r="D7" s="7">
-        <v>281498</v>
+        <v>216060</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H7" s="7">
-        <v>393</v>
+        <v>302</v>
       </c>
       <c r="I7" s="7">
-        <v>264971</v>
+        <v>203906</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="M7" s="7">
-        <v>815</v>
+        <v>629</v>
       </c>
       <c r="N7" s="7">
-        <v>546469</v>
+        <v>419966</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1161,49 +1161,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>1981</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>632</v>
+        <v>1316</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N8" s="7">
-        <v>632</v>
+        <v>3297</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1212,10 +1212,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>422</v>
+        <v>330</v>
       </c>
       <c r="D9" s="7">
-        <v>281498</v>
+        <v>218041</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -1227,10 +1227,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>394</v>
+        <v>304</v>
       </c>
       <c r="I9" s="7">
-        <v>265603</v>
+        <v>205222</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1242,10 +1242,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>816</v>
+        <v>634</v>
       </c>
       <c r="N9" s="7">
-        <v>547101</v>
+        <v>423263</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -1259,55 +1259,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>327</v>
+        <v>422</v>
       </c>
       <c r="D10" s="7">
-        <v>216060</v>
+        <v>281498</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>302</v>
+        <v>393</v>
       </c>
       <c r="I10" s="7">
-        <v>203906</v>
+        <v>264971</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>629</v>
+        <v>815</v>
       </c>
       <c r="N10" s="7">
-        <v>419966</v>
+        <v>546469</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1316,46 +1316,46 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>1981</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>1316</v>
+        <v>632</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M11" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>3297</v>
+        <v>632</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>49</v>
@@ -1367,10 +1367,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>330</v>
+        <v>422</v>
       </c>
       <c r="D12" s="7">
-        <v>218041</v>
+        <v>281498</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -1382,10 +1382,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>304</v>
+        <v>394</v>
       </c>
       <c r="I12" s="7">
-        <v>205222</v>
+        <v>265603</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -1397,10 +1397,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>634</v>
+        <v>816</v>
       </c>
       <c r="N12" s="7">
-        <v>423263</v>
+        <v>547101</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -1456,7 +1456,7 @@
         <v>1399792</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>55</v>
@@ -1507,7 +1507,7 @@
         <v>3929</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>62</v>
@@ -1583,7 +1583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE451F64-9754-4EAA-BD81-B641375B5FB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1387DE0F-2FF6-4441-B564-5C2FF7D20D60}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1740,7 +1740,7 @@
         <v>67</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>11</v>
@@ -1794,7 +1794,7 @@
         <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1856,49 +1856,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>398</v>
+        <v>330</v>
       </c>
       <c r="D7" s="7">
-        <v>270354</v>
+        <v>238749</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H7" s="7">
-        <v>361</v>
+        <v>318</v>
       </c>
       <c r="I7" s="7">
-        <v>253541</v>
+        <v>227735</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="M7" s="7">
-        <v>759</v>
+        <v>648</v>
       </c>
       <c r="N7" s="7">
-        <v>523895</v>
+        <v>466485</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>75</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1907,49 +1907,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>1351</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>661</v>
+        <v>443</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N8" s="7">
-        <v>661</v>
+        <v>1793</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1958,10 +1958,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>398</v>
+        <v>332</v>
       </c>
       <c r="D9" s="7">
-        <v>270354</v>
+        <v>240100</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -1973,10 +1973,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="I9" s="7">
-        <v>254202</v>
+        <v>228178</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1988,10 +1988,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>760</v>
+        <v>651</v>
       </c>
       <c r="N9" s="7">
-        <v>524556</v>
+        <v>468278</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -2005,55 +2005,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>330</v>
+        <v>398</v>
       </c>
       <c r="D10" s="7">
-        <v>238749</v>
+        <v>270354</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="7">
+        <v>361</v>
+      </c>
+      <c r="I10" s="7">
+        <v>253541</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="7">
-        <v>318</v>
-      </c>
-      <c r="I10" s="7">
-        <v>227735</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>648</v>
+        <v>759</v>
       </c>
       <c r="N10" s="7">
-        <v>466485</v>
+        <v>523895</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>84</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2062,49 +2062,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>1351</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>443</v>
+        <v>661</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M11" s="7">
+        <v>1</v>
+      </c>
+      <c r="N11" s="7">
+        <v>661</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="M11" s="7">
-        <v>3</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1793</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2113,10 +2113,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>332</v>
+        <v>398</v>
       </c>
       <c r="D12" s="7">
-        <v>240100</v>
+        <v>270354</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -2128,10 +2128,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>319</v>
+        <v>362</v>
       </c>
       <c r="I12" s="7">
-        <v>228178</v>
+        <v>254202</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -2143,10 +2143,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>651</v>
+        <v>760</v>
       </c>
       <c r="N12" s="7">
-        <v>468278</v>
+        <v>524556</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -2175,7 +2175,7 @@
         <v>91</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>11</v>
@@ -2229,7 +2229,7 @@
         <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -2329,7 +2329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF024E8-AE16-45EE-A65E-35278812613E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83AC9D71-0F3C-49DB-97F8-56EFFDC22460}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2468,13 +2468,13 @@
         <v>199428</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>104</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="M4" s="7">
         <v>644</v>
@@ -2489,7 +2489,7 @@
         <v>106</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2519,10 +2519,10 @@
         <v>1840</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>107</v>
@@ -2537,7 +2537,7 @@
         <v>108</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>109</v>
@@ -2602,49 +2602,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>380</v>
+        <v>358</v>
       </c>
       <c r="D7" s="7">
-        <v>280912</v>
+        <v>246897</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="7">
+        <v>359</v>
+      </c>
+      <c r="I7" s="7">
+        <v>234854</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="7">
-        <v>375</v>
-      </c>
-      <c r="I7" s="7">
-        <v>267770</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M7" s="7">
-        <v>755</v>
+        <v>717</v>
       </c>
       <c r="N7" s="7">
-        <v>548682</v>
+        <v>481751</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2653,49 +2653,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
+        <v>5</v>
+      </c>
+      <c r="D8" s="7">
+        <v>3155</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H8" s="7">
         <v>1</v>
       </c>
-      <c r="D8" s="7">
-        <v>717</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="I8" s="7">
+        <v>479</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N8" s="7">
-        <v>717</v>
+        <v>3634</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2704,10 +2704,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="D9" s="7">
-        <v>281629</v>
+        <v>250052</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -2719,10 +2719,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="I9" s="7">
-        <v>267770</v>
+        <v>235333</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -2734,10 +2734,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>756</v>
+        <v>723</v>
       </c>
       <c r="N9" s="7">
-        <v>549399</v>
+        <v>485385</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -2751,55 +2751,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>358</v>
+        <v>380</v>
       </c>
       <c r="D10" s="7">
-        <v>246897</v>
+        <v>280912</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="I10" s="7">
-        <v>234854</v>
+        <v>267770</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="L10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="7">
+        <v>755</v>
+      </c>
+      <c r="N10" s="7">
+        <v>548682</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="M10" s="7">
-        <v>717</v>
-      </c>
-      <c r="N10" s="7">
-        <v>481751</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2808,46 +2808,46 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>3155</v>
+        <v>717</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="M11" s="7">
         <v>1</v>
       </c>
-      <c r="I11" s="7">
-        <v>479</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="K11" s="7" t="s">
+      <c r="N11" s="7">
+        <v>717</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="M11" s="7">
-        <v>6</v>
-      </c>
-      <c r="N11" s="7">
-        <v>3634</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>125</v>
@@ -2859,10 +2859,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="D12" s="7">
-        <v>250052</v>
+        <v>281629</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -2874,10 +2874,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="I12" s="7">
-        <v>235333</v>
+        <v>267770</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -2889,10 +2889,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>723</v>
+        <v>756</v>
       </c>
       <c r="N12" s="7">
-        <v>485385</v>
+        <v>549399</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -2936,7 +2936,7 @@
         <v>128</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>54</v>
@@ -2951,7 +2951,7 @@
         <v>129</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>130</v>
@@ -2990,7 +2990,7 @@
         <v>60</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="M14" s="7">
         <v>10</v>
@@ -3005,7 +3005,7 @@
         <v>135</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP1005-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1005-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5DB897B-4B23-4134-9BBE-D5834A8ABB91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4D08BFF-A5AF-4333-92FE-C24E6CECD01A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{608C443D-0F69-4A9B-955D-E9C8CE769A73}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{12BF7C1C-6082-4C57-BB9E-81DA20D3168D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,9 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="136">
-  <si>
-    <t>Menores según si padecen cardipatía congénita en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="160">
+  <si>
+    <t>Menores según si padecen anomalía/malformación congénita en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -67,7 +67,25 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
   </si>
   <si>
     <t>No</t>
@@ -76,376 +94,430 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>99,43%</t>
+    <t>98,95%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
     <t>99,4%</t>
   </si>
   <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen anomalía/malformación congénita en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen anomalía/malformación congénita en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
   </si>
   <si>
     <t>99,7%</t>
   </si>
   <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
   </si>
   <si>
     <t>99,2%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen cardipatía congénita en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen cardipatía congénita en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
   </si>
 </sst>
 </file>
@@ -456,7 +528,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -552,39 +624,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -636,7 +708,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -747,13 +819,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -762,6 +827,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -826,19 +898,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{023FBCA4-4D98-4A07-B603-C19EFC6F2550}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB12CD0B-BA66-4481-AB85-16222DA6F758}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -955,10 +1047,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>334</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>223161</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -970,34 +1062,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>210196</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M4" s="7">
-        <v>654</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>433357</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1006,10 +1098,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>121380</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1021,34 +1113,34 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>106171</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>344</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>227551</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1057,49 +1149,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>334</v>
+        <v>182</v>
       </c>
       <c r="D6" s="7">
-        <v>223161</v>
+        <v>121380</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>320</v>
+        <v>162</v>
       </c>
       <c r="I6" s="7">
-        <v>210196</v>
+        <v>106171</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>654</v>
+        <v>344</v>
       </c>
       <c r="N6" s="7">
-        <v>433357</v>
+        <v>227551</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1110,10 +1202,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>327</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>216060</v>
+        <v>1981</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>23</v>
@@ -1125,25 +1217,25 @@
         <v>25</v>
       </c>
       <c r="H7" s="7">
-        <v>302</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>203906</v>
+        <v>642</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>26</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M7" s="7">
-        <v>629</v>
+        <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>419966</v>
+        <v>2623</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>28</v>
@@ -1161,10 +1253,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>379</v>
       </c>
       <c r="D8" s="7">
-        <v>1981</v>
+        <v>251775</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>31</v>
@@ -1176,25 +1268,25 @@
         <v>33</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>378</v>
       </c>
       <c r="I8" s="7">
-        <v>1316</v>
+        <v>252563</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>34</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="M8" s="7">
-        <v>5</v>
+        <v>757</v>
       </c>
       <c r="N8" s="7">
-        <v>3297</v>
+        <v>504338</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>36</v>
@@ -1212,49 +1304,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>330</v>
+        <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>218041</v>
+        <v>253756</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>304</v>
+        <v>379</v>
       </c>
       <c r="I9" s="7">
-        <v>205222</v>
+        <v>253205</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>634</v>
+        <v>761</v>
       </c>
       <c r="N9" s="7">
-        <v>423263</v>
+        <v>506961</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1265,49 +1357,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>422</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>281498</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H10" s="7">
-        <v>393</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>264971</v>
+        <v>1306</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>41</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M10" s="7">
-        <v>815</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>546469</v>
+        <v>1306</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>43</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1316,49 +1408,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>141515</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>189</v>
       </c>
       <c r="I11" s="7">
-        <v>632</v>
+        <v>126242</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>46</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>401</v>
       </c>
       <c r="N11" s="7">
-        <v>632</v>
+        <v>267757</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>48</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1367,102 +1459,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>422</v>
+        <v>212</v>
       </c>
       <c r="D12" s="7">
-        <v>281498</v>
+        <v>141515</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>394</v>
+        <v>191</v>
       </c>
       <c r="I12" s="7">
-        <v>265603</v>
+        <v>127548</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>816</v>
+        <v>403</v>
       </c>
       <c r="N12" s="7">
-        <v>547101</v>
+        <v>269063</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1083</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>720719</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="7">
-        <v>1015</v>
-      </c>
-      <c r="I13" s="7">
-        <v>679073</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M13" s="7">
-        <v>2098</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1399792</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1471,49 +1563,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>310</v>
       </c>
       <c r="D14" s="7">
-        <v>1981</v>
+        <v>206049</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>3</v>
+        <v>286</v>
       </c>
       <c r="I14" s="7">
-        <v>1948</v>
+        <v>194097</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>6</v>
+        <v>596</v>
       </c>
       <c r="N14" s="7">
-        <v>3929</v>
+        <v>400146</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1522,55 +1614,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>310</v>
+      </c>
+      <c r="D15" s="7">
+        <v>206049</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>286</v>
+      </c>
+      <c r="I15" s="7">
+        <v>194097</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>596</v>
+      </c>
+      <c r="N15" s="7">
+        <v>400146</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>3</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1981</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="7">
+        <v>3</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1948</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M16" s="7">
+        <v>6</v>
+      </c>
+      <c r="N16" s="7">
+        <v>3929</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1083</v>
+      </c>
+      <c r="D17" s="7">
+        <v>720719</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1015</v>
+      </c>
+      <c r="I17" s="7">
+        <v>679073</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2098</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1399792</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1086</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>722700</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1018</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>681021</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>2104</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1403721</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1583,8 +1836,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1387DE0F-2FF6-4441-B564-5C2FF7D20D60}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE053737-50A5-4A64-B74B-E1352AED8378}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1600,7 +1853,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1701,10 +1954,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>237688</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1713,37 +1966,37 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="H4" s="7">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>223854</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="7">
-        <v>672</v>
-      </c>
-      <c r="N4" s="7">
-        <v>461542</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="P4" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1752,49 +2005,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>144513</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>218</v>
       </c>
       <c r="I5" s="7">
-        <v>694</v>
+        <v>146281</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="7">
+        <v>423</v>
+      </c>
+      <c r="N5" s="7">
+        <v>290794</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M5" s="7">
-        <v>1</v>
-      </c>
-      <c r="N5" s="7">
-        <v>694</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1803,49 +2056,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>336</v>
+        <v>205</v>
       </c>
       <c r="D6" s="7">
-        <v>237688</v>
+        <v>144513</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>337</v>
+        <v>218</v>
       </c>
       <c r="I6" s="7">
-        <v>224548</v>
+        <v>146281</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>673</v>
+        <v>423</v>
       </c>
       <c r="N6" s="7">
-        <v>462236</v>
+        <v>290794</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1856,49 +2109,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>330</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>238749</v>
+        <v>672</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="7">
+        <v>2</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1137</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="7">
-        <v>318</v>
-      </c>
-      <c r="I7" s="7">
-        <v>227735</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="M7" s="7">
-        <v>648</v>
+        <v>3</v>
       </c>
       <c r="N7" s="7">
-        <v>466485</v>
+        <v>1808</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1907,49 +2160,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>370</v>
       </c>
       <c r="D8" s="7">
-        <v>1351</v>
+        <v>266429</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>77</v>
-      </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>335</v>
       </c>
       <c r="I8" s="7">
-        <v>443</v>
+        <v>233339</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>79</v>
-      </c>
       <c r="M8" s="7">
-        <v>3</v>
+        <v>705</v>
       </c>
       <c r="N8" s="7">
-        <v>1793</v>
+        <v>499768</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1958,49 +2211,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="D9" s="7">
-        <v>240100</v>
+        <v>267101</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="I9" s="7">
-        <v>228178</v>
+        <v>234476</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>651</v>
+        <v>708</v>
       </c>
       <c r="N9" s="7">
-        <v>468278</v>
+        <v>501576</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2011,49 +2264,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>398</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>270354</v>
+        <v>679</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="H10" s="7">
-        <v>361</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>253541</v>
+        <v>661</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M10" s="7">
+        <v>2</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1340</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M10" s="7">
-        <v>759</v>
-      </c>
-      <c r="N10" s="7">
-        <v>523895</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>85</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2062,49 +2315,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>157892</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>86</v>
-      </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>219</v>
       </c>
       <c r="I11" s="7">
-        <v>661</v>
+        <v>154173</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>88</v>
-      </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>446</v>
       </c>
       <c r="N11" s="7">
-        <v>661</v>
+        <v>312065</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2113,102 +2366,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>398</v>
+        <v>228</v>
       </c>
       <c r="D12" s="7">
-        <v>270354</v>
+        <v>158571</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>362</v>
+        <v>220</v>
       </c>
       <c r="I12" s="7">
-        <v>254202</v>
+        <v>154834</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>760</v>
+        <v>448</v>
       </c>
       <c r="N12" s="7">
-        <v>524556</v>
+        <v>313405</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1064</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>746791</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="7">
-        <v>1015</v>
-      </c>
-      <c r="I13" s="7">
-        <v>705131</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>92</v>
-      </c>
       <c r="K13" s="7" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M13" s="7">
-        <v>2079</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>1451922</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2217,49 +2470,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>262</v>
       </c>
       <c r="D14" s="7">
-        <v>1351</v>
+        <v>177957</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="7">
+        <v>243</v>
+      </c>
+      <c r="I14" s="7">
+        <v>171337</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H14" s="7">
-        <v>3</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1797</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>98</v>
-      </c>
       <c r="K14" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>5</v>
+        <v>505</v>
       </c>
       <c r="N14" s="7">
-        <v>3148</v>
+        <v>349294</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2268,55 +2521,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>262</v>
+      </c>
+      <c r="D15" s="7">
+        <v>177957</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>243</v>
+      </c>
+      <c r="I15" s="7">
+        <v>171337</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>505</v>
+      </c>
+      <c r="N15" s="7">
+        <v>349294</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>2</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1351</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H16" s="7">
+        <v>3</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1797</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="M16" s="7">
+        <v>5</v>
+      </c>
+      <c r="N16" s="7">
+        <v>3148</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1064</v>
+      </c>
+      <c r="D17" s="7">
+        <v>746791</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1015</v>
+      </c>
+      <c r="I17" s="7">
+        <v>705131</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2079</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1451922</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1066</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>748142</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1018</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>706928</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>2084</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1455070</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2329,8 +2743,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83AC9D71-0F3C-49DB-97F8-56EFFDC22460}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73295E89-5495-4A82-8FB4-2A8A52021F40}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2346,7 +2760,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2447,49 +2861,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>321</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>213163</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="H4" s="7">
-        <v>323</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>199428</v>
+        <v>1081</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="M4" s="7">
-        <v>644</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>412591</v>
+        <v>1081</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2498,49 +2912,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>124164</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>209</v>
       </c>
       <c r="I5" s="7">
-        <v>1840</v>
+        <v>130573</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="M5" s="7">
-        <v>3</v>
+        <v>396</v>
       </c>
       <c r="N5" s="7">
-        <v>1840</v>
+        <v>254737</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2549,49 +2963,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>321</v>
+        <v>187</v>
       </c>
       <c r="D6" s="7">
-        <v>213163</v>
+        <v>124164</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>326</v>
+        <v>211</v>
       </c>
       <c r="I6" s="7">
-        <v>201268</v>
+        <v>131654</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>647</v>
+        <v>398</v>
       </c>
       <c r="N6" s="7">
-        <v>414431</v>
+        <v>255818</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2602,49 +3016,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>358</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>246897</v>
+        <v>2511</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="H7" s="7">
-        <v>359</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>234854</v>
+        <v>759</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="M7" s="7">
-        <v>717</v>
+        <v>5</v>
       </c>
       <c r="N7" s="7">
-        <v>481751</v>
+        <v>3270</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>25</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2653,49 +3067,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>5</v>
+        <v>376</v>
       </c>
       <c r="D8" s="7">
-        <v>3155</v>
+        <v>255550</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>331</v>
       </c>
       <c r="I8" s="7">
-        <v>479</v>
+        <v>209758</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>88</v>
-      </c>
       <c r="M8" s="7">
-        <v>6</v>
+        <v>707</v>
       </c>
       <c r="N8" s="7">
-        <v>3634</v>
+        <v>465308</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>32</v>
+        <v>134</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2704,49 +3118,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="D9" s="7">
-        <v>250052</v>
+        <v>258061</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="I9" s="7">
-        <v>235333</v>
+        <v>210517</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="N9" s="7">
-        <v>485385</v>
+        <v>468578</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2757,49 +3171,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>380</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>280912</v>
+        <v>644</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>479</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="7">
-        <v>375</v>
-      </c>
-      <c r="I10" s="7">
-        <v>267770</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="M10" s="7">
+        <v>2</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1123</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10" s="7">
-        <v>755</v>
-      </c>
-      <c r="N10" s="7">
-        <v>548682</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>122</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2808,49 +3222,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>262</v>
       </c>
       <c r="D11" s="7">
-        <v>717</v>
+        <v>187928</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>123</v>
-      </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>271</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>188420</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>124</v>
-      </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>533</v>
       </c>
       <c r="N11" s="7">
-        <v>717</v>
+        <v>376348</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>89</v>
+        <v>144</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2859,102 +3273,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>381</v>
+        <v>263</v>
       </c>
       <c r="D12" s="7">
-        <v>281629</v>
+        <v>188572</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>375</v>
+        <v>272</v>
       </c>
       <c r="I12" s="7">
-        <v>267770</v>
+        <v>188899</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>756</v>
+        <v>535</v>
       </c>
       <c r="N12" s="7">
-        <v>549399</v>
+        <v>377471</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1059</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>740972</v>
+        <v>717</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>127</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>91</v>
+        <v>147</v>
       </c>
       <c r="H13" s="7">
-        <v>1057</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>702052</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="M13" s="7">
-        <v>2116</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>1443024</v>
+        <v>717</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>113</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2963,49 +3377,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>6</v>
+        <v>234</v>
       </c>
       <c r="D14" s="7">
-        <v>3872</v>
+        <v>173331</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="7">
+        <v>246</v>
+      </c>
+      <c r="I14" s="7">
+        <v>173301</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="7">
+        <v>480</v>
+      </c>
+      <c r="N14" s="7">
+        <v>346631</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="H14" s="7">
-        <v>4</v>
-      </c>
-      <c r="I14" s="7">
-        <v>2319</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M14" s="7">
-        <v>10</v>
-      </c>
-      <c r="N14" s="7">
-        <v>6191</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>134</v>
-      </c>
       <c r="P14" s="7" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>118</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3014,55 +3428,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>235</v>
+      </c>
+      <c r="D15" s="7">
+        <v>174048</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>246</v>
+      </c>
+      <c r="I15" s="7">
+        <v>173301</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>481</v>
+      </c>
+      <c r="N15" s="7">
+        <v>347348</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>6</v>
+      </c>
+      <c r="D16" s="7">
+        <v>3872</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H16" s="7">
+        <v>4</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2319</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="M16" s="7">
+        <v>10</v>
+      </c>
+      <c r="N16" s="7">
+        <v>6191</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1059</v>
+      </c>
+      <c r="D17" s="7">
+        <v>740972</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1057</v>
+      </c>
+      <c r="I17" s="7">
+        <v>702052</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2116</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1443024</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1065</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>744844</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1061</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>704371</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>2126</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1449215</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP1005-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1005-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4D08BFF-A5AF-4333-92FE-C24E6CECD01A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D31EB339-38C0-40EA-A3B2-B8C1EC2C2C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{12BF7C1C-6082-4C57-BB9E-81DA20D3168D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BE97E24D-5834-436B-BE37-8DC304937FC3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="158">
   <si>
     <t>Menores según si padecen anomalía/malformación congénita en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -115,7 +115,7 @@
     <t>0,24%</t>
   </si>
   <si>
-    <t>2,26%</t>
+    <t>2,17%</t>
   </si>
   <si>
     <t>0,25%</t>
@@ -130,391 +130,385 @@
     <t>0,13%</t>
   </si>
   <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen anomalía/malformación congénita en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
     <t>1,29%</t>
   </si>
   <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
   </si>
   <si>
     <t>98,71%</t>
   </si>
   <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen anomalía/malformación congénita en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen anomalía/malformación congénita en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
   </si>
   <si>
     <t>1,04%</t>
   </si>
   <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
   </si>
   <si>
     <t>98,96%</t>
   </si>
   <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen anomalía/malformación congénita en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
   </si>
   <si>
     <t>0,33%</t>
   </si>
   <si>
-    <t>0,77%</t>
+    <t>0,84%</t>
   </si>
   <si>
     <t>0,8%</t>
   </si>
   <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
   </si>
   <si>
     <t>99,67%</t>
   </si>
   <si>
-    <t>99,23%</t>
+    <t>99,16%</t>
   </si>
   <si>
     <t>99,2%</t>
@@ -929,7 +923,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB12CD0B-BA66-4481-AB85-16222DA6F758}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C592C3A-E044-4D02-97C8-B0482E0D692E}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1691,10 +1685,10 @@
         <v>60</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -1703,13 +1697,13 @@
         <v>3929</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1724,13 +1718,13 @@
         <v>720719</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H17" s="7">
         <v>1015</v>
@@ -1739,13 +1733,13 @@
         <v>679073</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="M17" s="7">
         <v>2098</v>
@@ -1754,13 +1748,13 @@
         <v>1399792</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1816,7 +1810,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1836,7 +1830,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE053737-50A5-4A64-B74B-E1352AED8378}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C23C49-D994-4431-9975-9D1DD0DF7C56}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1853,7 +1847,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1966,7 +1960,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -1981,7 +1975,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -1996,7 +1990,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2014,7 +2008,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -2029,7 +2023,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2044,7 +2038,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2121,7 +2115,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -2130,13 +2124,13 @@
         <v>1137</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -2145,13 +2139,13 @@
         <v>1808</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2169,7 +2163,7 @@
         <v>34</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -2181,10 +2175,10 @@
         <v>233339</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -2196,13 +2190,13 @@
         <v>499768</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2270,13 +2264,13 @@
         <v>679</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2285,13 +2279,13 @@
         <v>661</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -2300,13 +2294,13 @@
         <v>1340</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2321,10 +2315,10 @@
         <v>157892</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -2336,10 +2330,10 @@
         <v>154173</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>17</v>
@@ -2351,10 +2345,10 @@
         <v>312065</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>17</v>
@@ -2431,7 +2425,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2446,7 +2440,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -2461,7 +2455,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2479,7 +2473,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -2494,7 +2488,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -2509,7 +2503,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -2580,13 +2574,13 @@
         <v>1351</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -2598,10 +2592,10 @@
         <v>26</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -2610,13 +2604,13 @@
         <v>3148</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>58</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2631,10 +2625,10 @@
         <v>746791</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
@@ -2649,7 +2643,7 @@
         <v>34</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>111</v>
@@ -2664,10 +2658,10 @@
         <v>112</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2723,7 +2717,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2743,7 +2737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73295E89-5495-4A82-8FB4-2A8A52021F40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08667354-240B-40F4-AF01-EC561701870D}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3037,7 +3031,7 @@
         <v>759</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
@@ -3055,10 +3049,10 @@
         <v>126</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3073,13 +3067,13 @@
         <v>255550</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H8" s="7">
         <v>331</v>
@@ -3088,10 +3082,10 @@
         <v>209758</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -3103,13 +3097,13 @@
         <v>465308</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>134</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>135</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3177,13 +3171,13 @@
         <v>644</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>137</v>
+        <v>44</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -3198,7 +3192,7 @@
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -3207,13 +3201,13 @@
         <v>1123</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>140</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3228,10 +3222,10 @@
         <v>187928</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -3246,7 +3240,7 @@
         <v>34</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>17</v>
@@ -3258,10 +3252,10 @@
         <v>376348</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>145</v>
+        <v>92</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>17</v>
@@ -3332,13 +3326,13 @@
         <v>717</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3362,13 +3356,13 @@
         <v>717</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>85</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3383,10 +3377,10 @@
         <v>173331</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
@@ -3413,10 +3407,10 @@
         <v>346631</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>17</v>
@@ -3490,10 +3484,10 @@
         <v>28</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -3502,13 +3496,13 @@
         <v>2319</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -3517,13 +3511,13 @@
         <v>6191</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3541,10 +3535,10 @@
         <v>36</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H17" s="7">
         <v>1057</v>
@@ -3553,13 +3547,13 @@
         <v>702052</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M17" s="7">
         <v>2116</v>
@@ -3568,13 +3562,13 @@
         <v>1443024</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>112</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3630,7 +3624,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP1005-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1005-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D31EB339-38C0-40EA-A3B2-B8C1EC2C2C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{329987E9-2E26-425B-A121-1261F7A307D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BE97E24D-5834-436B-BE37-8DC304937FC3}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{17AAD293-A484-4160-93FB-3DBC7233DCAE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="156">
   <si>
     <t>Menores según si padecen anomalía/malformación congénita en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -79,12 +79,12 @@
     <t>0%</t>
   </si>
   <si>
+    <t>1,18%</t>
+  </si>
+  <si>
     <t>1,05%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
     <t>0,56%</t>
   </si>
   <si>
@@ -94,139 +94,133 @@
     <t>100,0%</t>
   </si>
   <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>98,95%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
     <t>99,44%</t>
   </si>
   <si>
     <t>3-7</t>
   </si>
   <si>
+    <t>0,25%</t>
+  </si>
+  <si>
     <t>0,78%</t>
   </si>
   <si>
     <t>0,24%</t>
   </si>
   <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
+    <t>2,08%</t>
   </si>
   <si>
     <t>0,52%</t>
   </si>
   <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
   </si>
   <si>
     <t>99,22%</t>
   </si>
   <si>
-    <t>97,83%</t>
+    <t>97,92%</t>
   </si>
   <si>
     <t>99,76%</t>
   </si>
   <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
     <t>99,48%</t>
   </si>
   <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
     <t>0,9%</t>
   </si>
   <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
     <t>0,49%</t>
   </si>
   <si>
-    <t>1,69%</t>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
   </si>
   <si>
     <t>99,1%</t>
   </si>
   <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
     <t>99,51%</t>
   </si>
   <si>
-    <t>98,31%</t>
+    <t>98,28%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
+    <t>0,67%</t>
+  </si>
+  <si>
     <t>0,62%</t>
   </si>
   <si>
-    <t>0,67%</t>
-  </si>
-  <si>
     <t>0,32%</t>
   </si>
   <si>
+    <t>99,33%</t>
+  </si>
+  <si>
     <t>99,38%</t>
   </si>
   <si>
-    <t>99,33%</t>
-  </si>
-  <si>
     <t>99,68%</t>
   </si>
   <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
     <t>0,27%</t>
   </si>
   <si>
     <t>0,08%</t>
   </si>
   <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
+    <t>0,8%</t>
   </si>
   <si>
     <t>0,28%</t>
@@ -238,24 +232,24 @@
     <t>0,61%</t>
   </si>
   <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
     <t>99,73%</t>
   </si>
   <si>
-    <t>99,23%</t>
+    <t>99,2%</t>
   </si>
   <si>
     <t>99,92%</t>
   </si>
   <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
     <t>99,72%</t>
   </si>
   <si>
@@ -271,109 +265,115 @@
     <t>Menores según si padecen anomalía/malformación congénita en 2012 (Tasa respuesta: 99,29%)</t>
   </si>
   <si>
+    <t>0,88%</t>
+  </si>
+  <si>
     <t>0,93%</t>
   </si>
   <si>
-    <t>0,88%</t>
-  </si>
-  <si>
     <t>0,45%</t>
   </si>
   <si>
+    <t>99,12%</t>
+  </si>
+  <si>
     <t>99,07%</t>
   </si>
   <si>
-    <t>99,12%</t>
-  </si>
-  <si>
     <t>99,55%</t>
   </si>
   <si>
-    <t>1,42%</t>
-  </si>
-  <si>
     <t>0,48%</t>
   </si>
   <si>
-    <t>1,66%</t>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
   </si>
   <si>
     <t>0,36%</t>
   </si>
   <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
+    <t>1,0%</t>
   </si>
   <si>
     <t>99,52%</t>
   </si>
   <si>
-    <t>98,34%</t>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
   </si>
   <si>
     <t>99,64%</t>
   </si>
   <si>
-    <t>98,97%</t>
+    <t>99,0%</t>
   </si>
   <si>
     <t>0,43%</t>
   </si>
   <si>
+    <t>2,39%</t>
+  </si>
+  <si>
     <t>2,13%</t>
   </si>
   <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
+    <t>1,49%</t>
   </si>
   <si>
     <t>99,57%</t>
   </si>
   <si>
+    <t>97,61%</t>
+  </si>
+  <si>
     <t>97,87%</t>
   </si>
   <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
   </si>
   <si>
     <t>0,73%</t>
   </si>
   <si>
-    <t>0,79%</t>
-  </si>
-  <si>
     <t>0,38%</t>
   </si>
   <si>
+    <t>99,21%</t>
+  </si>
+  <si>
     <t>99,27%</t>
   </si>
   <si>
-    <t>99,21%</t>
-  </si>
-  <si>
     <t>99,62%</t>
   </si>
   <si>
+    <t>0,06%</t>
+  </si>
+  <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>0,06%</t>
+    <t>0,63%</t>
   </si>
   <si>
     <t>0,22%</t>
   </si>
   <si>
+    <t>99,94%</t>
+  </si>
+  <si>
     <t>99,82%</t>
   </si>
   <si>
-    <t>99,94%</t>
+    <t>99,37%</t>
   </si>
   <si>
     <t>99,78%</t>
@@ -385,133 +385,127 @@
     <t>0,82%</t>
   </si>
   <si>
-    <t>2,8%</t>
+    <t>3,4%</t>
   </si>
   <si>
     <t>0,42%</t>
   </si>
   <si>
-    <t>1,32%</t>
+    <t>1,51%</t>
   </si>
   <si>
     <t>99,18%</t>
   </si>
   <si>
-    <t>97,2%</t>
+    <t>96,6%</t>
   </si>
   <si>
     <t>99,58%</t>
   </si>
   <si>
-    <t>98,68%</t>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
   </si>
   <si>
     <t>0,97%</t>
   </si>
   <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
     <t>0,26%</t>
   </si>
   <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
   </si>
   <si>
     <t>99,03%</t>
   </si>
   <si>
-    <t>97,69%</t>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
   </si>
   <si>
     <t>99,74%</t>
   </si>
   <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
     <t>0,34%</t>
   </si>
   <si>
-    <t>1,27%</t>
+    <t>1,74%</t>
   </si>
   <si>
     <t>0,3%</t>
   </si>
   <si>
+    <t>0,98%</t>
+  </si>
+  <si>
     <t>99,66%</t>
   </si>
   <si>
-    <t>98,73%</t>
+    <t>98,26%</t>
   </si>
   <si>
     <t>99,7%</t>
   </si>
   <si>
+    <t>99,02%</t>
+  </si>
+  <si>
     <t>0,41%</t>
   </si>
   <si>
-    <t>1,94%</t>
+    <t>2,05%</t>
   </si>
   <si>
     <t>0,21%</t>
   </si>
   <si>
-    <t>1,04%</t>
+    <t>1,19%</t>
   </si>
   <si>
     <t>99,59%</t>
   </si>
   <si>
-    <t>98,06%</t>
+    <t>97,95%</t>
   </si>
   <si>
     <t>99,79%</t>
   </si>
   <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
+    <t>98,81%</t>
   </si>
   <si>
     <t>0,33%</t>
   </si>
   <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
   </si>
   <si>
     <t>99,67%</t>
   </si>
   <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
   </si>
 </sst>
 </file>
@@ -923,7 +917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C592C3A-E044-4D02-97C8-B0482E0D692E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7F86702-5633-4686-A49B-AE68175E6396}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1092,10 +1086,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="D5" s="7">
-        <v>121380</v>
+        <v>106171</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1107,10 +1101,10 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="I5" s="7">
-        <v>106171</v>
+        <v>121380</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
@@ -1143,25 +1137,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>162</v>
+      </c>
+      <c r="D6" s="7">
+        <v>106171</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>182</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>121380</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>162</v>
-      </c>
-      <c r="I6" s="7">
-        <v>106171</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -1196,34 +1190,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>1981</v>
+        <v>642</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
+        <v>3</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1981</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7">
-        <v>642</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -1232,13 +1226,13 @@
         <v>2623</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1247,34 +1241,34 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
+        <v>378</v>
+      </c>
+      <c r="D8" s="7">
+        <v>252563</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="7">
         <v>379</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>251775</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="H8" s="7">
-        <v>378</v>
-      </c>
-      <c r="I8" s="7">
-        <v>252563</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="M8" s="7">
         <v>757</v>
@@ -1283,13 +1277,13 @@
         <v>504338</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1298,25 +1292,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>379</v>
+      </c>
+      <c r="D9" s="7">
+        <v>253205</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>382</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>253756</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>379</v>
-      </c>
-      <c r="I9" s="7">
-        <v>253205</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1345,40 +1339,40 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>2</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1306</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>0</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="H10" s="7">
-        <v>2</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1306</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -1387,13 +1381,13 @@
         <v>1306</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1402,34 +1396,34 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>189</v>
+      </c>
+      <c r="D11" s="7">
+        <v>126242</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="7">
         <v>212</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>141515</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="7">
-        <v>189</v>
-      </c>
-      <c r="I11" s="7">
-        <v>126242</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
         <v>401</v>
@@ -1438,10 +1432,10 @@
         <v>267757</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>17</v>
@@ -1453,25 +1447,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>191</v>
+      </c>
+      <c r="D12" s="7">
+        <v>127548</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>212</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>141515</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>191</v>
-      </c>
-      <c r="I12" s="7">
-        <v>127548</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -1500,7 +1494,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1518,7 +1512,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1533,7 +1527,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -1548,7 +1542,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1557,31 +1551,31 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>310</v>
+        <v>286</v>
       </c>
       <c r="D14" s="7">
-        <v>206049</v>
+        <v>194097</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="I14" s="7">
-        <v>194097</v>
+        <v>206049</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -1596,7 +1590,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -1608,25 +1602,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>286</v>
+      </c>
+      <c r="D15" s="7">
+        <v>194097</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>310</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>206049</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>286</v>
-      </c>
-      <c r="I15" s="7">
-        <v>194097</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -1664,31 +1658,31 @@
         <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>1981</v>
+        <v>1948</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>1948</v>
+        <v>1981</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -1697,13 +1691,13 @@
         <v>3929</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1712,34 +1706,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>1015</v>
+      </c>
+      <c r="D17" s="7">
+        <v>679073</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="7">
         <v>1083</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>720719</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="H17" s="7">
-        <v>1015</v>
-      </c>
-      <c r="I17" s="7">
-        <v>679073</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M17" s="7">
         <v>2098</v>
@@ -1748,13 +1742,13 @@
         <v>1399792</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1763,25 +1757,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1018</v>
+      </c>
+      <c r="D18" s="7">
+        <v>681021</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1086</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>722700</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>681021</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -1810,7 +1804,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1830,7 +1824,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C23C49-D994-4431-9975-9D1DD0DF7C56}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C01534E0-F900-449D-9B1C-6B8722D131C7}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1847,7 +1841,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1960,7 +1954,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -1975,7 +1969,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -1990,7 +1984,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1999,31 +1993,31 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="D5" s="7">
-        <v>144513</v>
+        <v>146281</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="I5" s="7">
-        <v>146281</v>
+        <v>144513</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2038,7 +2032,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2050,25 +2044,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>218</v>
+      </c>
+      <c r="D6" s="7">
+        <v>146281</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>205</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>144513</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>218</v>
-      </c>
-      <c r="I6" s="7">
-        <v>146281</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -2103,34 +2097,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>672</v>
+        <v>1137</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>1137</v>
+        <v>672</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -2139,13 +2133,13 @@
         <v>1808</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2154,31 +2148,31 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>370</v>
+        <v>335</v>
       </c>
       <c r="D8" s="7">
-        <v>266429</v>
+        <v>233339</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H8" s="7">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="I8" s="7">
-        <v>233339</v>
+        <v>266429</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -2190,13 +2184,13 @@
         <v>499768</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2205,25 +2199,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>337</v>
+      </c>
+      <c r="D9" s="7">
+        <v>234476</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>371</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>267101</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>337</v>
-      </c>
-      <c r="I9" s="7">
-        <v>234476</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -2252,7 +2246,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2261,31 +2255,31 @@
         <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>679</v>
+        <v>661</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>661</v>
+        <v>679</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -2294,13 +2288,13 @@
         <v>1340</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2309,31 +2303,31 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D11" s="7">
-        <v>157892</v>
+        <v>154173</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="7">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="I11" s="7">
-        <v>154173</v>
+        <v>157892</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>17</v>
@@ -2345,10 +2339,10 @@
         <v>312065</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>17</v>
@@ -2360,25 +2354,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>220</v>
+      </c>
+      <c r="D12" s="7">
+        <v>154834</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>228</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>158571</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>220</v>
-      </c>
-      <c r="I12" s="7">
-        <v>154834</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -2407,7 +2401,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2425,7 +2419,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2440,7 +2434,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -2455,7 +2449,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2464,31 +2458,31 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="D14" s="7">
-        <v>177957</v>
+        <v>171337</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="I14" s="7">
-        <v>171337</v>
+        <v>177957</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -2503,7 +2497,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -2515,25 +2509,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>243</v>
+      </c>
+      <c r="D15" s="7">
+        <v>171337</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>262</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>177957</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>243</v>
-      </c>
-      <c r="I15" s="7">
-        <v>171337</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -2568,34 +2562,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>3</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1797</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H16" s="7">
         <v>2</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>1351</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="J16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H16" s="7">
-        <v>3</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1797</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -2604,13 +2598,13 @@
         <v>3148</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2619,34 +2613,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>1015</v>
+      </c>
+      <c r="D17" s="7">
+        <v>705131</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H17" s="7">
         <v>1064</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>746791</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1015</v>
-      </c>
-      <c r="I17" s="7">
-        <v>705131</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>2079</v>
@@ -2658,10 +2652,10 @@
         <v>112</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2670,25 +2664,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1018</v>
+      </c>
+      <c r="D18" s="7">
+        <v>706928</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1066</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>748142</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>706928</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -2717,7 +2711,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2737,7 +2731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08667354-240B-40F4-AF01-EC561701870D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{890CF590-7CCF-41C6-AB3B-E82175F9E0D8}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2855,34 +2849,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1081</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>0</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="7">
-        <v>2</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1081</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -2906,34 +2900,34 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
+        <v>209</v>
+      </c>
+      <c r="D5" s="7">
+        <v>130573</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="7">
         <v>187</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>124164</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="7">
-        <v>209</v>
-      </c>
-      <c r="I5" s="7">
-        <v>130573</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>118</v>
-      </c>
       <c r="K5" s="7" t="s">
-        <v>119</v>
+        <v>43</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
         <v>396</v>
@@ -2957,25 +2951,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>211</v>
+      </c>
+      <c r="D6" s="7">
+        <v>131654</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>187</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>124164</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>211</v>
-      </c>
-      <c r="I6" s="7">
-        <v>131654</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -3010,34 +3004,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>759</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H7" s="7">
         <v>4</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>2511</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="K7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7">
-        <v>759</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -3046,10 +3040,10 @@
         <v>3270</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>127</v>
@@ -3061,34 +3055,34 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
+        <v>331</v>
+      </c>
+      <c r="D8" s="7">
+        <v>209758</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="7">
         <v>376</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>255550</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="H8" s="7">
-        <v>331</v>
-      </c>
-      <c r="I8" s="7">
-        <v>209758</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>131</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="M8" s="7">
         <v>707</v>
@@ -3097,13 +3091,13 @@
         <v>465308</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3112,25 +3106,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>332</v>
+      </c>
+      <c r="D9" s="7">
+        <v>210517</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>380</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>258061</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>332</v>
-      </c>
-      <c r="I9" s="7">
-        <v>210517</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3159,7 +3153,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3168,25 +3162,25 @@
         <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>644</v>
+        <v>479</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>479</v>
+        <v>644</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
@@ -3207,7 +3201,7 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>87</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3216,31 +3210,31 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="D11" s="7">
-        <v>187928</v>
+        <v>188420</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="7">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="I11" s="7">
-        <v>188420</v>
+        <v>187928</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>34</v>
+        <v>138</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>17</v>
@@ -3252,10 +3246,10 @@
         <v>376348</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>92</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>17</v>
@@ -3267,25 +3261,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>272</v>
+      </c>
+      <c r="D12" s="7">
+        <v>188899</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>263</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>188572</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>272</v>
-      </c>
-      <c r="I12" s="7">
-        <v>188899</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -3314,40 +3308,40 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="7">
         <v>1</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>717</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="J13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>23</v>
+        <v>143</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -3356,13 +3350,13 @@
         <v>717</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3371,34 +3365,34 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
+        <v>246</v>
+      </c>
+      <c r="D14" s="7">
+        <v>173301</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="7">
         <v>234</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>173331</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="J14" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="H14" s="7">
-        <v>246</v>
-      </c>
-      <c r="I14" s="7">
-        <v>173301</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="M14" s="7">
         <v>480</v>
@@ -3407,10 +3401,10 @@
         <v>346631</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>17</v>
@@ -3422,25 +3416,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>246</v>
+      </c>
+      <c r="D15" s="7">
+        <v>173301</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>235</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>174048</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>246</v>
-      </c>
-      <c r="I15" s="7">
-        <v>173301</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3475,31 +3469,31 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>4</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2319</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="7">
         <v>6</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>3872</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="H16" s="7">
-        <v>4</v>
-      </c>
-      <c r="I16" s="7">
-        <v>2319</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>150</v>
+        <v>27</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>151</v>
@@ -3511,10 +3505,10 @@
         <v>6191</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>152</v>
@@ -3526,34 +3520,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>1057</v>
+      </c>
+      <c r="D17" s="7">
+        <v>702052</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="7">
         <v>1059</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>740972</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="J17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="H17" s="7">
-        <v>1057</v>
-      </c>
-      <c r="I17" s="7">
-        <v>702052</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>156</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="M17" s="7">
         <v>2116</v>
@@ -3562,13 +3556,13 @@
         <v>1443024</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3577,25 +3571,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1061</v>
+      </c>
+      <c r="D18" s="7">
+        <v>704371</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1065</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>744844</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I18" s="7">
-        <v>704371</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -3624,7 +3618,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
